--- a/biology/Médecine/Mnémothérapie/Mnémothérapie.xlsx
+++ b/biology/Médecine/Mnémothérapie/Mnémothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mn%C3%A9moth%C3%A9rapie</t>
+          <t>Mnémothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mnémothérapie est une approche thérapeutique des symptômes de la maladie d'Alzheimer qui affirme « éveiller et faire s'épanouir de façon reproductible la reviviscence des mémoires rétrogrades par stimulation sensorielle indicée ». Cette approche se situe dans le domaine des pratiques non conventionnelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mn%C3%A9moth%C3%A9rapie</t>
+          <t>Mnémothérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étymologiquement « mnémothérapie » vient de deux mots grecs : Mnêmosia, « mémoire » et de Therapévô « servir, prendre soin, traiter ».
 Elle viserait l'amélioration immédiate et durable de l'apathie, la tristesse, les syndromes dépressifs, l'anxiété et les troubles du comportement. Elle affirme permettre la réactivation des mécanismes intellectuels et émotionnels de la personne atteinte de la maladie d'Alzheimer et donc de son goût de vivre. Elle actionnerait non pas le rappel d'un souvenir mais le surgissement d'un épisode auto-biographique qui est revécu au présent et en acteur dans toute sa richesse de détails et d'émotions. 
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mn%C3%A9moth%C3%A9rapie</t>
+          <t>Mnémothérapie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mnémothérapie musicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle privilégie le stimulus musical permettant la reproduction à l'identique de l'empreinte mémorielle initiale et favorise la mobilisation de la mémoire par l'émotion suscitée. Toutes les sensorialités peuvent être utilisées, le choix de la mnémothérapie musicale a été faite pour trois raisons principales :
 l'enregistrement musical que l'on fait écouter est strictement identique  à l'empreinte synaptique neuronale qui a été constituée initialement. Cette reproduction à l'identique permet d'éviter une recherche analogique de l'hippocampe qui n'est plus  possible chez la personne Alzheimer ;
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mn%C3%A9moth%C3%A9rapie</t>
+          <t>Mnémothérapie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mn%C3%A9moth%C3%A9rapie</t>
+          <t>Mnémothérapie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Approche médicale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principes de la mnémothérapie se déduisent des caractéristiques cliniques de la maladie d'Alzheimer. La maladie d'Alzheimer se caractérise cliniquement, dès le début et pour longtemps, par la perte de la mémoire consciente des faits récents qui ne sont plus encodés et stockés par l'hippocampe. C'est l'amnésie antérograde. Tout se passe comme si le patient ne pouvait plus prendre appui sur un passé récent qui se dérobe pour se projeter vers un avenir qui le motiverait. Plus de passé, plus d'avenir, plus de projets, plus de motivation, plus d'émotions : c'est l'apathie.
 La conscience est présente mais semble vide. L'arrêt de l'encodage-stockage agit comme un arrêt sur image. Le flux spontané et continu de la pensée semble en panne. Amnésie antérograde, apathie et vacuité de la conscience se conjuguent pour désespérer l'entourage et les personnes atteintes de la maladie d'Alzheimer.
